--- a/trabalho/vetores_caracteristicas/Imagens Seg1 malign.xlsx
+++ b/trabalho/vetores_caracteristicas/Imagens Seg1 malign.xlsx
@@ -357,24 +357,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.6648218916185207</v>
+        <v>2.7014852257482458</v>
       </c>
       <c r="B2">
-        <v>3.1504927731854191</v>
+        <v>4.3728187783424124</v>
       </c>
       <c r="C2">
-        <v>151701</v>
+        <v>211319</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.7081719557925119</v>
+        <v>2.674659421593554</v>
       </c>
       <c r="B3">
-        <v>4.2795109847106456</v>
+        <v>3.0009077762335861</v>
       </c>
       <c r="C3">
-        <v>182747</v>
+        <v>139975</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -401,13 +401,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.6476915325300845</v>
+        <v>2.6482696912031791</v>
       </c>
       <c r="B6">
-        <v>3.0610313215409657</v>
+        <v>3.0957296363440197</v>
       </c>
       <c r="C6">
-        <v>197097</v>
+        <v>192572</v>
       </c>
     </row>
   </sheetData>
